--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -309,6 +309,14 @@
   </si>
   <si>
     <t>郑良杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客芝麻信用授权取消无法授权</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客App</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1390,7 +1398,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1635,12 +1643,24 @@
       <c r="V4" s="54"/>
     </row>
     <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>85</v>
+      </c>
       <c r="G5" s="38"/>
       <c r="H5" s="39"/>
       <c r="I5" s="38"/>

--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -317,6 +317,10 @@
   </si>
   <si>
     <t>租客App</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1398,7 +1402,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1661,13 +1665,25 @@
       <c r="F5" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="G5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="39">
+        <v>42705</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="39">
+        <v>42705</v>
+      </c>
       <c r="K5" s="38"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="38"/>
+      <c r="L5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="N5" s="38"/>
       <c r="O5" s="47"/>
       <c r="P5" s="39"/>
@@ -5388,7 +5404,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 T1:T1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">

--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
   <si>
     <t>No</t>
   </si>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>邵明基</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>房东修改密码报错</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -322,6 +318,33 @@
   <si>
     <t>安栋</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC登录页改版</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+  </si>
+  <si>
+    <t>朱和芳</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1540,7 +1563,9 @@
       <c r="O2" s="47"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="47"/>
-      <c r="R2" s="44"/>
+      <c r="R2" s="44">
+        <v>5699</v>
+      </c>
       <c r="S2" s="44"/>
       <c r="T2" s="52"/>
       <c r="U2" s="53"/>
@@ -1585,14 +1610,24 @@
         <v>76</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="44"/>
+        <v>90</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" s="39">
+        <v>42705</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="44">
+        <v>5700</v>
+      </c>
       <c r="S3" s="44"/>
-      <c r="T3" s="52"/>
+      <c r="T3" s="52" t="s">
+        <v>93</v>
+      </c>
       <c r="U3" s="55"/>
       <c r="V3" s="54"/>
     </row>
@@ -1607,7 +1642,7 @@
         <v>72</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>69</v>
@@ -1629,18 +1664,20 @@
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" s="38" t="s">
         <v>76</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O4" s="47"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="44"/>
+      <c r="R4" s="44">
+        <v>5701</v>
+      </c>
       <c r="S4" s="44"/>
       <c r="T4" s="52"/>
       <c r="U4" s="53"/>
@@ -1657,13 +1694,13 @@
         <v>72</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>73</v>
@@ -1679,7 +1716,7 @@
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="38" t="s">
         <v>76</v>
@@ -1688,26 +1725,52 @@
       <c r="O5" s="47"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="47"/>
-      <c r="R5" s="44"/>
+      <c r="R5" s="44">
+        <v>5702</v>
+      </c>
       <c r="S5" s="44"/>
       <c r="T5" s="52"/>
       <c r="U5" s="55"/>
       <c r="V5" s="54"/>
     </row>
     <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="39">
+        <v>42705</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="39">
+        <v>42705</v>
+      </c>
       <c r="K6" s="38"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="38"/>
+      <c r="L6" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="N6" s="38"/>
       <c r="O6" s="47"/>
       <c r="P6" s="39"/>
@@ -5404,7 +5467,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5424,7 +5487,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.1.3.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="定时器" sheetId="10" r:id="rId2"/>
     <sheet name="上线执行顺序" sheetId="8" r:id="rId3"/>
     <sheet name="配置文件（测试环境）" sheetId="9" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本X.X.X 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.3.1 新特性|Fix Bug'!$A$1:$U$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -1424,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
@@ -311,12 +311,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -401,73 +401,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -475,23 +410,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -504,25 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,9 +440,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,7 +475,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,31 +565,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,7 +621,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,139 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,31 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,11 +957,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,26 +991,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1042,17 +1011,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,17 +1035,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,172 +1059,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1511,7 +1479,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="56" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="56" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1943,7 +1911,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2242,9 +2210,15 @@
       <c r="N5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="71"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="71"/>
+      <c r="O5" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="63">
+        <v>42705</v>
+      </c>
+      <c r="Q5" s="71" t="s">
+        <v>34</v>
+      </c>
       <c r="R5" s="68">
         <v>5702</v>
       </c>
@@ -5983,26 +5957,26 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O1:O4 O6:O1048576">
+      <formula1>"通过,不通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 Q1:Q4 Q6:Q1048576">
+      <formula1>"能,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 T$1:T$1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576">
-      <formula1>"能,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
-      <formula1>"通过,不通过"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 T$1:T$1048576">
-      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6661,6 +6635,9 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
@@ -6669,9 +6646,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6976,6 +6950,9 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
@@ -6984,9 +6961,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7291,6 +7265,9 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
@@ -7299,9 +7276,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7611,14 +7585,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
@@ -121,6 +121,12 @@
     <t>李萌</t>
   </si>
   <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
     <t>MogoDate导致死循环内存溢出</t>
   </si>
   <si>
@@ -128,12 +134,6 @@
   </si>
   <si>
     <t>大鱼</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>能</t>
   </si>
   <si>
     <t>否</t>
@@ -311,10 +311,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -401,8 +401,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -416,8 +431,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,9 +522,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,17 +545,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -475,97 +565,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,55 +621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,19 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +699,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,25 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,6 +957,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -990,67 +1049,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,172 +1059,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1910,8 +1910,8 @@
   <sheetPr/>
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2046,9 +2046,15 @@
       <c r="N2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="71"/>
+      <c r="O2" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="63">
+        <v>42705</v>
+      </c>
+      <c r="Q2" s="71" t="s">
+        <v>31</v>
+      </c>
       <c r="R2" s="68">
         <v>5699</v>
       </c>
@@ -2068,13 +2074,13 @@
         <v>22</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>26</v>
@@ -2096,16 +2102,16 @@
         <v>28</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" s="71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P3" s="63">
         <v>42705</v>
       </c>
       <c r="Q3" s="71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R3" s="68">
         <v>5700</v>
@@ -2211,13 +2217,13 @@
         <v>29</v>
       </c>
       <c r="O5" s="71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P5" s="63">
         <v>42705</v>
       </c>
       <c r="Q5" s="71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R5" s="68">
         <v>5702</v>
@@ -2244,7 +2250,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" s="62" t="s">
         <v>26</v>
@@ -5957,17 +5963,11 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O1:O4 O6:O1048576">
-      <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 Q1:Q4 Q6:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 Q2 Q5 Q3:Q4 Q6:Q1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 T$1:T$1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
-      <formula1>"重要,不重要"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1 O2 O5 O3:O4 O6:O1048576">
+      <formula1>"通过,不通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
@@ -5975,8 +5975,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+      <formula1>"重要,不重要"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 T$1:T$1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6635,17 +6641,17 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6950,17 +6956,17 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7265,17 +7271,17 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7585,14 +7591,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_马丁组.xlsx
@@ -22,7 +22,7 @@
     <sheet name="数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.3.1 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.3.1 新特性|Fix Bug'!$A$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -160,15 +160,6 @@
   </si>
   <si>
     <t>安栋</t>
-  </si>
-  <si>
-    <t>房东PC登录页改版</t>
-  </si>
-  <si>
-    <t>New Features</t>
-  </si>
-  <si>
-    <t>朱和芳</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1327,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1659,43 +1650,19 @@
       <c r="V5" s="69"/>
     </row>
     <row r="6" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="51">
-        <v>5</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="54">
-        <v>42705</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="54">
-        <v>42705</v>
-      </c>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
       <c r="K6" s="53"/>
-      <c r="L6" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="53" t="s">
-        <v>28</v>
-      </c>
+      <c r="L6" s="62"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="62"/>
       <c r="P6" s="54"/>
@@ -1734,7 +1701,7 @@
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -1748,8 +1715,8 @@
       <c r="O8" s="62"/>
       <c r="P8" s="54"/>
       <c r="Q8" s="62"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
       <c r="T8" s="67"/>
       <c r="U8" s="70"/>
       <c r="V8" s="69"/>
@@ -1758,7 +1725,7 @@
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -1768,12 +1735,12 @@
       <c r="K9" s="53"/>
       <c r="L9" s="62"/>
       <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
+      <c r="N9" s="63"/>
       <c r="O9" s="62"/>
       <c r="P9" s="54"/>
       <c r="Q9" s="62"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
       <c r="T9" s="67"/>
       <c r="U9" s="70"/>
       <c r="V9" s="69"/>
@@ -1792,7 +1759,7 @@
       <c r="K10" s="53"/>
       <c r="L10" s="62"/>
       <c r="M10" s="53"/>
-      <c r="N10" s="63"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="62"/>
       <c r="P10" s="54"/>
       <c r="Q10" s="62"/>
@@ -1883,7 +1850,7 @@
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
       <c r="H14" s="54"/>
-      <c r="I14" s="53"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="54"/>
       <c r="K14" s="53"/>
       <c r="L14" s="62"/>
@@ -1894,7 +1861,7 @@
       <c r="Q14" s="62"/>
       <c r="R14" s="59"/>
       <c r="S14" s="59"/>
-      <c r="T14" s="67"/>
+      <c r="T14" s="59"/>
       <c r="U14" s="70"/>
       <c r="V14" s="69"/>
     </row>
@@ -1933,20 +1900,20 @@
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
       <c r="J16" s="54"/>
-      <c r="K16" s="53"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="62"/>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="62"/>
+      <c r="O16" s="65"/>
       <c r="P16" s="54"/>
-      <c r="Q16" s="62"/>
+      <c r="Q16" s="65"/>
       <c r="R16" s="59"/>
       <c r="S16" s="59"/>
       <c r="T16" s="59"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="69"/>
     </row>
-    <row r="17" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1957,20 +1924,19 @@
       <c r="H17" s="54"/>
       <c r="I17" s="54"/>
       <c r="J17" s="54"/>
-      <c r="K17" s="64"/>
+      <c r="K17" s="66"/>
       <c r="L17" s="62"/>
       <c r="M17" s="53"/>
       <c r="N17" s="53"/>
-      <c r="O17" s="65"/>
+      <c r="O17" s="62"/>
       <c r="P17" s="54"/>
-      <c r="Q17" s="65"/>
+      <c r="Q17" s="62"/>
       <c r="R17" s="59"/>
       <c r="S17" s="59"/>
       <c r="T17" s="59"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="69"/>
-    </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U17" s="60"/>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -1985,7 +1951,7 @@
       <c r="L18" s="62"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
-      <c r="O18" s="62"/>
+      <c r="O18" s="59"/>
       <c r="P18" s="54"/>
       <c r="Q18" s="62"/>
       <c r="R18" s="59"/>
@@ -1993,7 +1959,7 @@
       <c r="T18" s="59"/>
       <c r="U18" s="60"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2008,7 +1974,7 @@
       <c r="L19" s="62"/>
       <c r="M19" s="53"/>
       <c r="N19" s="53"/>
-      <c r="O19" s="59"/>
+      <c r="O19" s="67"/>
       <c r="P19" s="54"/>
       <c r="Q19" s="62"/>
       <c r="R19" s="59"/>
@@ -2016,30 +1982,30 @@
       <c r="T19" s="59"/>
       <c r="U19" s="60"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="53"/>
       <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
+      <c r="I20" s="53"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="66"/>
+      <c r="K20" s="53"/>
       <c r="L20" s="62"/>
       <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="67"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="62"/>
       <c r="R20" s="59"/>
       <c r="S20" s="59"/>
       <c r="T20" s="59"/>
-      <c r="U20" s="60"/>
-    </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U20" s="70"/>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2062,7 +2028,7 @@
       <c r="T21" s="59"/>
       <c r="U21" s="70"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2085,7 +2051,7 @@
       <c r="T22" s="59"/>
       <c r="U22" s="70"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2103,12 +2069,12 @@
       <c r="O23" s="62"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="62"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="70"/>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="74"/>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2126,12 +2092,12 @@
       <c r="O24" s="62"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="62"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
       <c r="U24" s="74"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2143,7 +2109,7 @@
       <c r="I25" s="53"/>
       <c r="J25" s="54"/>
       <c r="K25" s="53"/>
-      <c r="L25" s="62"/>
+      <c r="L25" s="53"/>
       <c r="M25" s="53"/>
       <c r="N25" s="62"/>
       <c r="O25" s="62"/>
@@ -2151,10 +2117,10 @@
       <c r="Q25" s="62"/>
       <c r="R25" s="75"/>
       <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
+      <c r="T25" s="76"/>
       <c r="U25" s="74"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2174,10 +2140,10 @@
       <c r="Q26" s="62"/>
       <c r="R26" s="75"/>
       <c r="S26" s="75"/>
-      <c r="T26" s="76"/>
+      <c r="T26" s="75"/>
       <c r="U26" s="74"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2189,7 +2155,7 @@
       <c r="I27" s="53"/>
       <c r="J27" s="54"/>
       <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="53"/>
       <c r="N27" s="62"/>
       <c r="O27" s="62"/>
@@ -2200,7 +2166,7 @@
       <c r="T27" s="75"/>
       <c r="U27" s="74"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2218,12 +2184,12 @@
       <c r="O28" s="62"/>
       <c r="P28" s="54"/>
       <c r="Q28" s="62"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="74"/>
-    </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="62"/>
+    </row>
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2241,12 +2207,12 @@
       <c r="O29" s="62"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="62"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="62"/>
-    </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="70"/>
+    </row>
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2269,7 +2235,7 @@
       <c r="T30" s="59"/>
       <c r="U30" s="70"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2292,7 +2258,7 @@
       <c r="T31" s="59"/>
       <c r="U31" s="70"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2303,42 +2269,44 @@
       <c r="H32" s="54"/>
       <c r="I32" s="53"/>
       <c r="J32" s="54"/>
-      <c r="K32" s="53"/>
+      <c r="K32" s="57"/>
       <c r="L32" s="62"/>
       <c r="M32" s="53"/>
       <c r="N32" s="62"/>
       <c r="O32" s="62"/>
       <c r="P32" s="54"/>
       <c r="Q32" s="62"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="70"/>
-    </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="74"/>
+    </row>
+    <row r="33" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
-      <c r="D33" s="56"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="53"/>
-      <c r="F33" s="57"/>
+      <c r="F33" s="53"/>
       <c r="G33" s="53"/>
       <c r="H33" s="54"/>
       <c r="I33" s="53"/>
       <c r="J33" s="54"/>
-      <c r="K33" s="57"/>
+      <c r="K33" s="53"/>
       <c r="L33" s="62"/>
       <c r="M33" s="53"/>
-      <c r="N33" s="62"/>
+      <c r="N33" s="53"/>
       <c r="O33" s="62"/>
       <c r="P33" s="54"/>
       <c r="Q33" s="62"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="75"/>
-      <c r="T33" s="75"/>
-      <c r="U33" s="74"/>
-    </row>
-    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2359,9 +2327,7 @@
       <c r="R34" s="59"/>
       <c r="S34" s="59"/>
       <c r="T34" s="59"/>
-      <c r="U34" s="68" t="s">
-        <v>45</v>
-      </c>
+      <c r="U34" s="70"/>
     </row>
     <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
@@ -2574,23 +2540,23 @@
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
-      <c r="D44" s="52"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="53"/>
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
       <c r="H44" s="54"/>
-      <c r="I44" s="53"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="54"/>
       <c r="K44" s="53"/>
       <c r="L44" s="62"/>
-      <c r="M44" s="53"/>
+      <c r="M44" s="62"/>
       <c r="N44" s="53"/>
       <c r="O44" s="62"/>
       <c r="P44" s="54"/>
       <c r="Q44" s="62"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
       <c r="U44" s="70"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
@@ -2620,24 +2586,24 @@
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
-      <c r="D46" s="55"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="53"/>
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
       <c r="H46" s="54"/>
       <c r="I46" s="54"/>
       <c r="J46" s="54"/>
-      <c r="K46" s="53"/>
+      <c r="K46" s="66"/>
       <c r="L46" s="62"/>
       <c r="M46" s="62"/>
       <c r="N46" s="53"/>
       <c r="O46" s="62"/>
       <c r="P46" s="54"/>
       <c r="Q46" s="62"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="70"/>
+      <c r="R46" s="59"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="59"/>
+      <c r="U46" s="60"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
@@ -2778,23 +2744,23 @@
       <c r="U52" s="60"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="53"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="59"/>
       <c r="F53" s="53"/>
       <c r="G53" s="53"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="61"/>
       <c r="K53" s="66"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="62"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="59"/>
       <c r="S53" s="59"/>
       <c r="T53" s="59"/>
@@ -3152,7 +3118,7 @@
       <c r="D69" s="60"/>
       <c r="E69" s="59"/>
       <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
+      <c r="G69" s="59"/>
       <c r="H69" s="61"/>
       <c r="I69" s="59"/>
       <c r="J69" s="61"/>
@@ -3283,13 +3249,13 @@
       <c r="T74" s="59"/>
       <c r="U74" s="60"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="60"/>
       <c r="E75" s="59"/>
-      <c r="F75" s="53"/>
+      <c r="F75" s="59"/>
       <c r="G75" s="59"/>
       <c r="H75" s="61"/>
       <c r="I75" s="59"/>
@@ -4681,9 +4647,6 @@
       <c r="O135" s="59"/>
       <c r="P135" s="61"/>
       <c r="Q135" s="60"/>
-      <c r="R135" s="59"/>
-      <c r="S135" s="59"/>
-      <c r="T135" s="59"/>
       <c r="U135" s="60"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.15">
@@ -5365,26 +5328,6 @@
       <c r="P169" s="61"/>
       <c r="Q169" s="60"/>
       <c r="U169" s="60"/>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A170" s="59"/>
-      <c r="B170" s="59"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="60"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="59"/>
-      <c r="H170" s="61"/>
-      <c r="I170" s="59"/>
-      <c r="J170" s="61"/>
-      <c r="K170" s="66"/>
-      <c r="L170" s="59"/>
-      <c r="M170" s="59"/>
-      <c r="N170" s="59"/>
-      <c r="O170" s="59"/>
-      <c r="P170" s="61"/>
-      <c r="Q170" s="60"/>
-      <c r="U170" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -5407,7 +5350,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5446,55 +5389,55 @@
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="K1" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="L1" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="M1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="N1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="P1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="Q1" s="31" t="s">
         <v>58</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>61</v>
       </c>
       <c r="R1" s="31" t="s">
         <v>20</v>
@@ -5589,7 +5532,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="77" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -5604,34 +5547,34 @@
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>20</v>
@@ -5792,7 +5735,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -5824,40 +5767,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -6106,7 +6049,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -6138,40 +6081,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -6420,7 +6363,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -6452,40 +6395,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -6736,7 +6679,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -6768,40 +6711,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -7046,28 +6989,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
